--- a/artfynd/A 61805-2025 artfynd.xlsx
+++ b/artfynd/A 61805-2025 artfynd.xlsx
@@ -1091,7 +1091,7 @@
         <v>130684542</v>
       </c>
       <c r="B6" t="n">
-        <v>83202</v>
+        <v>83206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
